--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/2_Adıyaman_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/2_Adıyaman_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F55F138-66A3-4A22-B4A0-79664F5ECDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B08C56-5B8D-45FB-8C7A-1704368C1C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{E4D952B8-2DE6-46AB-A2B7-FB3427DD5EC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{8D72D4A0-238F-4B26-917F-083534A4674B}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,14 +793,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D33F762B-6EB4-4C23-AD88-6FB532B57D19}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E0B55370-94AB-4581-BE94-42F7BCB7E210}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{43CDFAC7-8397-4C1A-BFF6-3042F6ED8CCD}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{0B592EDC-92E2-46E4-833C-CA9ADA26B511}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B2B3F12B-DE26-4097-BDFC-D7B0E18D6ECF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{71F1F8DB-DAB8-4682-AF9D-504853BA9137}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C1B40356-D7B0-452A-AD1D-9C0AFD4E2F26}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{943C5114-62DE-4D79-B51B-97115D3523C6}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{028B8A69-E7A6-49E2-9159-E23D6EB3C780}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A475A531-E138-4301-8E35-C1785A77C9DB}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{27B81F98-A923-404F-B9A4-9CB804E9CEE5}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{E071CEA2-0F26-4927-8BED-E036BDE65EC9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8280F3A4-A010-469E-BC4E-2BF0067661FD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F0F175B6-272E-4668-A1DB-8B4320453E39}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{5C89ABBD-3691-4B55-9E93-6F270B13F6DF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9897F393-BE3C-4C2A-9C5D-21E28BF7EB1D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA6DD68-8BE0-4FE8-B9DC-9F53825885C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3EF583-024E-49E8-9510-242AA29D5A54}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2448,7 +2448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23425C3-E0E2-47E4-98E7-C2D3F4058AAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECEAED5-12B7-4DAB-93C5-C15924CA6A58}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3724,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF22611B-66CB-40AE-899B-F4930244094D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9ED857-099E-4EF1-B046-BBDE6B7B8499}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4982,7 +4982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75516B1-9DF0-45FD-9745-9E8DAF10B8DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BB6209-60EC-44C2-B42D-1BBD8BF1642C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6242,7 +6242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C68372B-BEE9-41F3-96C4-54EB62AD143D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD742F0F-60AA-48E7-9BBC-052D797DCB8F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7492,7 +7492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D432F83A-7906-4A73-A3B7-A32030C0EF0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5431EF-1857-4D24-80E0-5FE3F0B7E22C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
